--- a/New-Sarnia_Tags.xlsx
+++ b/New-Sarnia_Tags.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="272">
   <si>
     <t>Tagname</t>
   </si>
@@ -38,12 +38,6 @@
     <t>DataType</t>
   </si>
   <si>
-    <t>HiEngineeringUnits</t>
-  </si>
-  <si>
-    <t>LoEngineeringUnits</t>
-  </si>
-  <si>
     <t>TagId</t>
   </si>
   <si>
@@ -56,6 +50,12 @@
     <t>5BB3428E-C1ED-4873-8447-2D0B2B20301A</t>
   </si>
   <si>
+    <t>REST_SNCOL_SC20380_BATT_EGU_F_CV</t>
+  </si>
+  <si>
+    <t>2F988455-C8E5-4C37-8B92-56D36224D522</t>
+  </si>
+  <si>
     <t>REST_SNCOL_SC20380_SQ_EGU_F_CV</t>
   </si>
   <si>
@@ -569,6 +569,9 @@
     <t>ppm</t>
   </si>
   <si>
+    <t>Volts</t>
+  </si>
+  <si>
     <t>%</t>
   </si>
   <si>
@@ -587,13 +590,13 @@
     <t>mm</t>
   </si>
   <si>
-    <t>Volts</t>
-  </si>
-  <si>
     <t>mm/hr</t>
   </si>
   <si>
     <t>SARNIA SMART COVER 20380 LEVEL Analog Sensor (F_CV)</t>
+  </si>
+  <si>
+    <t>SARNIA SMART COVER 20380 BATTERY VOLTAGE (F_CV)</t>
   </si>
   <si>
     <t>SARNIA SMART COVER 20380 SIGNAL QUALITY (F_CV)</t>
@@ -1161,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,13 +1175,11 @@
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1191,19 +1192,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>189</v>
@@ -1212,21 +1207,15 @@
         <v>180</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>190</v>
@@ -1235,21 +1224,15 @@
         <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>191</v>
@@ -1258,44 +1241,32 @@
         <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>192</v>
@@ -1304,21 +1275,15 @@
         <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>193</v>
@@ -1327,21 +1292,15 @@
         <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>194</v>
@@ -1350,44 +1309,32 @@
         <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>196</v>
@@ -1396,21 +1343,15 @@
         <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
-        <v>100</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>197</v>
@@ -1419,67 +1360,49 @@
         <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2">
-        <v>100</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>100</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2">
-        <v>100</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>200</v>
@@ -1488,44 +1411,32 @@
         <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2">
-        <v>100</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2">
-        <v>100</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>202</v>
@@ -1534,21 +1445,15 @@
         <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2">
-        <v>100</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>203</v>
@@ -1557,67 +1462,49 @@
         <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2">
-        <v>100</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2">
-        <v>100</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2">
-        <v>100</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>206</v>
@@ -1626,44 +1513,32 @@
         <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2">
-        <v>100</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>208</v>
@@ -1672,21 +1547,15 @@
         <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2">
-        <v>100</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>209</v>
@@ -1695,67 +1564,49 @@
         <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2">
-        <v>100</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2">
-        <v>100</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2">
-        <v>100</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>212</v>
@@ -1764,44 +1615,32 @@
         <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2">
-        <v>100</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2">
-        <v>100</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>214</v>
@@ -1810,21 +1649,15 @@
         <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2">
-        <v>100</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>215</v>
@@ -1833,67 +1666,49 @@
         <v>183</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2">
-        <v>100</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2">
-        <v>100</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2">
-        <v>100</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>218</v>
@@ -1902,44 +1717,32 @@
         <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2">
-        <v>100</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2">
-        <v>100</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>220</v>
@@ -1948,21 +1751,15 @@
         <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2">
-        <v>100</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>221</v>
@@ -1971,67 +1768,49 @@
         <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2">
-        <v>100</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2">
-        <v>100</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2">
-        <v>100</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>224</v>
@@ -2040,44 +1819,32 @@
         <v>186</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2">
-        <v>100</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2">
-        <v>100</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>226</v>
@@ -2086,21 +1853,15 @@
         <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2">
-        <v>100</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>227</v>
@@ -2109,67 +1870,49 @@
         <v>183</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="2">
-        <v>100</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2">
-        <v>100</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2">
-        <v>100</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>230</v>
@@ -2178,44 +1921,32 @@
         <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2">
-        <v>100</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="2">
-        <v>100</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>232</v>
@@ -2224,21 +1955,15 @@
         <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2">
-        <v>100</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>233</v>
@@ -2247,67 +1972,49 @@
         <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2">
-        <v>100</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="2">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>100</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>102</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="2">
-        <v>100</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>236</v>
@@ -2316,44 +2023,32 @@
         <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2">
-        <v>100</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2">
-        <v>100</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>238</v>
@@ -2362,21 +2057,15 @@
         <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2">
-        <v>100</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>239</v>
@@ -2385,67 +2074,49 @@
         <v>183</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="2">
-        <v>100</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2">
-        <v>100</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2">
-        <v>100</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>242</v>
@@ -2454,44 +2125,32 @@
         <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="2">
-        <v>100</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="2">
-        <v>100</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>244</v>
@@ -2500,21 +2159,15 @@
         <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="2">
-        <v>100</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>245</v>
@@ -2523,136 +2176,100 @@
         <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="2">
-        <v>100</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="2">
-        <v>100</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>126</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="2">
-        <v>100</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>128</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="2">
-        <v>100</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="2">
-        <v>100</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="2">
-        <v>100</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>250</v>
@@ -2661,21 +2278,15 @@
         <v>182</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="2">
-        <v>100</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>251</v>
@@ -2684,90 +2295,66 @@
         <v>183</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="2">
-        <v>100</v>
-      </c>
-      <c r="F66" s="2">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="2">
-        <v>100</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="2">
-        <v>100</v>
-      </c>
-      <c r="F68" s="2">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="2">
-        <v>100</v>
-      </c>
-      <c r="F69" s="2">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>255</v>
@@ -2776,21 +2363,15 @@
         <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="2">
-        <v>100</v>
-      </c>
-      <c r="F70" s="2">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>256</v>
@@ -2799,67 +2380,49 @@
         <v>183</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="2">
-        <v>100</v>
-      </c>
-      <c r="F71" s="2">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="2">
-        <v>100</v>
-      </c>
-      <c r="F72" s="2">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="2">
-        <v>100</v>
-      </c>
-      <c r="F73" s="2">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>259</v>
@@ -2868,44 +2431,32 @@
         <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="2">
-        <v>100</v>
-      </c>
-      <c r="F74" s="2">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="2">
-        <v>100</v>
-      </c>
-      <c r="F75" s="2">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>261</v>
@@ -2914,21 +2465,15 @@
         <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="2">
-        <v>100</v>
-      </c>
-      <c r="F76" s="2">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>262</v>
@@ -2937,67 +2482,49 @@
         <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="2">
-        <v>100</v>
-      </c>
-      <c r="F77" s="2">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="2">
-        <v>100</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="2">
-        <v>100</v>
-      </c>
-      <c r="F79" s="2">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>265</v>
@@ -3006,44 +2533,32 @@
         <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="2">
-        <v>100</v>
-      </c>
-      <c r="F80" s="2">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="2">
-        <v>100</v>
-      </c>
-      <c r="F81" s="2">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>267</v>
@@ -3052,21 +2567,15 @@
         <v>182</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="2">
-        <v>100</v>
-      </c>
-      <c r="F82" s="2">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>268</v>
@@ -3075,107 +2584,94 @@
         <v>183</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="2">
-        <v>100</v>
-      </c>
-      <c r="F83" s="2">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="2">
-        <v>100</v>
-      </c>
-      <c r="F84" s="2">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>174</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2">
-        <v>100</v>
-      </c>
-      <c r="F85" s="2">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>176</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="2">
-        <v>100</v>
-      </c>
-      <c r="F86" s="2">
-        <v>0</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="2">
-        <v>100</v>
-      </c>
-      <c r="F87" s="2">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="B88" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
         <v>179</v>
       </c>
     </row>

--- a/New-Sarnia_Tags.xlsx
+++ b/New-Sarnia_Tags.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rad.ESHGHI\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6D0153-045E-413E-BBE0-0535A0FB8559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="11100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="275">
   <si>
     <t>Tagname</t>
   </si>
@@ -840,12 +841,21 @@
   </si>
   <si>
     <t>SARNIA SMART COVER 31290 TEMPERATURE (F_CV)</t>
+  </si>
+  <si>
+    <t>SARNIA SMART COVER 31290 RAIN GAIGE (F_CV)</t>
+  </si>
+  <si>
+    <t>SARNIA SMART COVER 31289 RAIN GAIGE (F_CV)</t>
+  </si>
+  <si>
+    <t>SARNIA SMART COVER 26343 RAIN GAIGE (F_CV)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1163,11 +1173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +2217,7 @@
         <v>124</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>188</v>
@@ -2612,7 +2625,7 @@
         <v>172</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>188</v>
@@ -2646,7 +2659,7 @@
         <v>176</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>188</v>
@@ -2677,5 +2690,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>